--- a/Lab 3/rectifier data.xlsx
+++ b/Lab 3/rectifier data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Output Voltage</t>
   </si>
@@ -74,7 +74,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,14 +107,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -406,26 +416,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E1" sqref="E1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -433,13 +443,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="B2">
         <v>14.06</v>
-      </c>
-      <c r="B2">
-        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -447,13 +460,16 @@
       <c r="D2">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0.501</v>
+      </c>
+      <c r="B3">
         <v>12.3</v>
-      </c>
-      <c r="B3">
-        <v>0.501</v>
       </c>
       <c r="C3">
         <v>2.0499999999999998</v>
@@ -461,13 +477,16 @@
       <c r="D3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>1.02</v>
+      </c>
+      <c r="B4">
         <v>11.5</v>
-      </c>
-      <c r="B4">
-        <v>1.02</v>
       </c>
       <c r="C4">
         <v>4.2</v>
@@ -475,13 +494,16 @@
       <c r="D4">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="B5">
         <v>10.6</v>
-      </c>
-      <c r="B5">
-        <v>1.5880000000000001</v>
       </c>
       <c r="C5">
         <v>6.5</v>
@@ -489,13 +511,16 @@
       <c r="D5">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="B6">
         <v>9.86</v>
-      </c>
-      <c r="B6">
-        <v>2.0699999999999998</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -503,29 +528,13 @@
       <c r="D6">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
+      <c r="E6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -534,7 +543,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E6" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,27 +589,76 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12.009</v>
+      </c>
+      <c r="B3">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>1.8</v>
+      </c>
       <c r="E3">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11.68</v>
+      </c>
+      <c r="B4">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.9</v>
+      </c>
+      <c r="D4">
+        <v>1.82</v>
+      </c>
       <c r="E4">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11.263999999999999</v>
+      </c>
+      <c r="B5">
+        <v>1.575</v>
+      </c>
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+      <c r="D5">
+        <v>1.82</v>
+      </c>
       <c r="E5">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10.702</v>
+      </c>
+      <c r="B6">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="C6">
+        <v>2.1</v>
+      </c>
+      <c r="D6">
+        <v>1.82</v>
+      </c>
       <c r="E6">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -609,12 +667,12 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:F7"/>
+      <selection activeCell="F7" sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -653,7 +711,7 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <f>C2/B2</f>
         <v>2.6755852842809364E-2</v>
       </c>
@@ -674,7 +732,7 @@
       <c r="E3">
         <v>480</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f>C3/B3</f>
         <v>9.7165991902834009E-2</v>
       </c>
@@ -695,8 +753,8 @@
       <c r="E4">
         <v>480</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F11" si="0">C4/B4</f>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F7" si="0">C4/B4</f>
         <v>0.10344827586206896</v>
       </c>
     </row>
@@ -716,7 +774,7 @@
       <c r="E5">
         <v>389</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>0.12755102040816327</v>
       </c>
@@ -737,7 +795,7 @@
       <c r="E6">
         <v>480</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>0.11552346570397112</v>
       </c>
@@ -758,13 +816,14 @@
       <c r="E7">
         <v>550</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>0.1079136690647482</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -773,7 +832,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F5" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +880,7 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <f>C2/B2</f>
         <v>7.6335877862595426E-3</v>
       </c>
@@ -842,7 +901,7 @@
       <c r="E3">
         <v>267</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f>C3/B3</f>
         <v>8.1967213114754103E-3</v>
       </c>
@@ -863,7 +922,7 @@
       <c r="E4">
         <v>267</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f t="shared" ref="F4:F5" si="0">C4/B4</f>
         <v>3.3898305084745763E-2</v>
       </c>
@@ -884,7 +943,7 @@
       <c r="E5">
         <v>267</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>7.9365079365079378E-3</v>
       </c>

--- a/Lab 3/rectifier data.xlsx
+++ b/Lab 3/rectifier data.xlsx
@@ -111,9 +111,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,10 +667,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:F7"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,9 +679,10 @@
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -698,7 +702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -715,8 +719,9 @@
         <f>C2/B2</f>
         <v>2.6755852842809364E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -736,8 +741,9 @@
         <f>C3/B3</f>
         <v>9.7165991902834009E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -757,8 +763,9 @@
         <f t="shared" ref="F4:F7" si="0">C4/B4</f>
         <v>0.10344827586206896</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -778,8 +785,9 @@
         <f t="shared" si="0"/>
         <v>0.12755102040816327</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -799,8 +807,9 @@
         <f t="shared" si="0"/>
         <v>0.11552346570397112</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -820,8 +829,14 @@
         <f t="shared" si="0"/>
         <v>0.1079136690647482</v>
       </c>
+      <c r="G7" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -829,10 +844,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:F5"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,9 +857,10 @@
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -864,7 +880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -884,8 +900,9 @@
         <f>C2/B2</f>
         <v>7.6335877862595426E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -905,8 +922,9 @@
         <f>C3/B3</f>
         <v>8.1967213114754103E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -926,8 +944,9 @@
         <f t="shared" ref="F4:F5" si="0">C4/B4</f>
         <v>3.3898305084745763E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -947,8 +966,14 @@
         <f t="shared" si="0"/>
         <v>7.9365079365079378E-3</v>
       </c>
+      <c r="G5" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>